--- a/proyecto/documentos/doc/crono.xlsx
+++ b/proyecto/documentos/doc/crono.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>14/02  21/02</t>
   </si>
@@ -132,14 +132,20 @@
     <t>29/10 05/11</t>
   </si>
   <si>
-    <t>05/11 ????</t>
+    <t>Mantenimineto</t>
+  </si>
+  <si>
+    <t>05/11 12/11</t>
+  </si>
+  <si>
+    <t>12/11 ??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +159,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -240,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -260,8 +259,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,8 +268,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF47"/>
       <color rgb="FFFFFF93"/>
-      <color rgb="FFFFFF47"/>
     </mruColors>
   </colors>
   <extLst>
@@ -550,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,9 +890,11 @@
         <v>36</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -917,7 +917,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -940,7 +940,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -963,7 +963,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -986,7 +986,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -1001,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1009,7 +1009,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -1021,18 +1021,18 @@
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -1044,18 +1044,18 @@
     </row>
     <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="3"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1077,8 +1077,8 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="10"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -1090,18 +1090,18 @@
     </row>
     <row r="31" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -1113,26 +1113,18 @@
     </row>
     <row r="32" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
